--- a/LTV Variables.xlsx
+++ b/LTV Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengs\Documents\Reyna\KingsIsle\New Project 1\New Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8916218-2DA6-4603-BD0D-F640AB3AE630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C6FF8B-FAE6-D54C-9801-0AA555A434FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{79D5EC6E-AAAA-4CD1-BD6F-D525AE9A085B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{79D5EC6E-AAAA-4CD1-BD6F-D525AE9A085B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,11 +413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9C3BCD-2C2A-44D4-B80D-8CB150F07DE8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -442,16 +444,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.20799999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="D2">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
       <c r="E2">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -459,16 +461,16 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.2535</v>
+        <v>0.33</v>
       </c>
       <c r="D3">
-        <v>-0.45</v>
+        <v>-0.6</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -476,16 +478,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="D4">
-        <v>-0.42</v>
+        <v>-0.6</v>
       </c>
       <c r="E4">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -493,13 +495,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="D5">
-        <v>-0.42</v>
+        <v>-0.6</v>
       </c>
       <c r="E5">
-        <v>0.14000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/LTV Variables.xlsx
+++ b/LTV Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C6FF8B-FAE6-D54C-9801-0AA555A434FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEE7056-1F00-DD46-A86F-AF162D8393BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{79D5EC6E-AAAA-4CD1-BD6F-D525AE9A085B}"/>
+    <workbookView xWindow="7460" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{79D5EC6E-AAAA-4CD1-BD6F-D525AE9A085B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +422,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -443,14 +454,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0.22</v>
-      </c>
-      <c r="D2">
-        <v>-0.5</v>
-      </c>
-      <c r="E2">
-        <v>0.28999999999999998</v>
+      <c r="C2" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -460,13 +471,13 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.33</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="1">
         <v>-0.6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.47</v>
       </c>
     </row>
@@ -477,13 +488,13 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0.25</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="1">
         <v>-0.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.34</v>
       </c>
     </row>
@@ -494,13 +505,13 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0.33</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D5" s="1">
         <v>-0.6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>

--- a/LTV Variables.xlsx
+++ b/LTV Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEE7056-1F00-DD46-A86F-AF162D8393BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BAB0BF-D5C7-0B4C-A26A-3B3F8622703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7460" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{79D5EC6E-AAAA-4CD1-BD6F-D525AE9A085B}"/>
   </bookViews>
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.6</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -475,10 +475,10 @@
         <v>0.36</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.6</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="E3" s="1">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -492,10 +492,10 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.6</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="E4" s="1">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -509,10 +509,10 @@
         <v>0.36</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.6</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="E5" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
